--- a/Spreadsheets/Demand Forecasting.xlsx
+++ b/Spreadsheets/Demand Forecasting.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
   <si>
     <t>Value (mandatory)</t>
   </si>
@@ -159,13 +159,16 @@
     <t>Quarter Name (mandatory)</t>
   </si>
   <si>
-    <t>Week of Month Name</t>
-  </si>
-  <si>
     <t>Day Factor (S)</t>
   </si>
   <si>
     <t>Day Average Adjustment Factor</t>
+  </si>
+  <si>
+    <t>Week of Month Name (mandatory)</t>
+  </si>
+  <si>
+    <t>Day of week (mandatory)</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -315,13 +318,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -5519,11 +5522,11 @@
         <v>1.7948717948717949</v>
       </c>
       <c r="I2" s="6">
-        <f>C2/H2</f>
+        <f t="shared" ref="I2:I13" si="0">C2/H2</f>
         <v>0.55714285714285716</v>
       </c>
       <c r="J2" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B2,$I$2:$I$13)</f>
+        <f t="shared" ref="J2:J17" si="1">AVERAGEIF($B$2:$B$13,B2,$I$2:$I$13)</f>
         <v>0.74967903251888479</v>
       </c>
     </row>
@@ -5536,27 +5539,27 @@
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E17" si="0">H3*J3</f>
+        <f t="shared" ref="E3:E17" si="2">H3*J3</f>
         <v>1.2865596449642551</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F13" si="1">ABS(C3-E3)</f>
+        <f t="shared" ref="F3:F13" si="3">ABS(C3-E3)</f>
         <v>0.71344035503574488</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G17" si="2">ROW(G3)-1</f>
+        <f t="shared" ref="G3:G17" si="4">ROW(G3)-1</f>
         <v>2</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H17" si="3">$I$21*G3+$I$20</f>
+        <f t="shared" ref="H3:H17" si="5">$I$21*G3+$I$20</f>
         <v>1.9836829836829839</v>
       </c>
       <c r="I3" s="6">
-        <f>C3/H3</f>
+        <f t="shared" si="0"/>
         <v>1.0082256169212689</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B3,$I$2:$I$13)</f>
+        <f t="shared" si="1"/>
         <v>0.64857119587504741</v>
       </c>
     </row>
@@ -5569,27 +5572,27 @@
         <v>3</v>
       </c>
       <c r="E4" s="7">
+        <f t="shared" si="2"/>
+        <v>2.9725066516165439</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="3"/>
+        <v>2.7493348383456073E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="5"/>
+        <v>2.1724941724941726</v>
+      </c>
+      <c r="I4" s="6">
         <f t="shared" si="0"/>
-        <v>2.9725066516165439</v>
-      </c>
-      <c r="F4" s="6">
+        <v>1.3809012875536479</v>
+      </c>
+      <c r="J4" s="6">
         <f t="shared" si="1"/>
-        <v>2.7493348383456073E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="3"/>
-        <v>2.1724941724941726</v>
-      </c>
-      <c r="I4" s="6">
-        <f>C4/H4</f>
-        <v>1.3809012875536479</v>
-      </c>
-      <c r="J4" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B4,$I$2:$I$13)</f>
         <v>1.3682460874930229</v>
       </c>
     </row>
@@ -5602,27 +5605,27 @@
         <v>4</v>
       </c>
       <c r="E5" s="7">
+        <f t="shared" si="2"/>
+        <v>2.9041645108702423</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0958354891297577</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="5"/>
+        <v>2.3613053613053614</v>
+      </c>
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
-        <v>2.9041645108702423</v>
-      </c>
-      <c r="F5" s="6">
+        <v>1.6939782823297136</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>1.0958354891297577</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="3"/>
-        <v>2.3613053613053614</v>
-      </c>
-      <c r="I5" s="6">
-        <f>C5/H5</f>
-        <v>1.6939782823297136</v>
-      </c>
-      <c r="J5" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B5,$I$2:$I$13)</f>
         <v>1.2298979024317216</v>
       </c>
     </row>
@@ -5637,27 +5640,27 @@
         <v>2</v>
       </c>
       <c r="E6" s="7">
+        <f t="shared" si="2"/>
+        <v>1.9117689081017715</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="3"/>
+        <v>8.8231091898228531E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="5"/>
+        <v>2.5501165501165501</v>
+      </c>
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>1.9117689081017715</v>
-      </c>
-      <c r="F6" s="6">
+        <v>0.78427787934186466</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>8.8231091898228531E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="3"/>
-        <v>2.5501165501165501</v>
-      </c>
-      <c r="I6" s="6">
-        <f>C6/H6</f>
-        <v>0.78427787934186466</v>
-      </c>
-      <c r="J6" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B6,$I$2:$I$13)</f>
         <v>0.74967903251888479</v>
       </c>
     </row>
@@ -5670,27 +5673,27 @@
         <v>1</v>
       </c>
       <c r="E7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.7763896390517033</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.77638963905170333</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="5"/>
+        <v>2.7389277389277389</v>
+      </c>
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>1.7763896390517033</v>
-      </c>
-      <c r="F7" s="6">
+        <v>0.36510638297872339</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>0.77638963905170333</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="3"/>
-        <v>2.7389277389277389</v>
-      </c>
-      <c r="I7" s="6">
-        <f>C7/H7</f>
-        <v>0.36510638297872339</v>
-      </c>
-      <c r="J7" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B7,$I$2:$I$13)</f>
         <v>0.64857119587504741</v>
       </c>
     </row>
@@ -5703,27 +5706,27 @@
         <v>4</v>
       </c>
       <c r="E8" s="7">
+        <f t="shared" si="2"/>
+        <v>4.0058673330798067</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="3"/>
+        <v>5.8673330798066914E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="5"/>
+        <v>2.9277389277389281</v>
+      </c>
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>4.0058673330798067</v>
-      </c>
-      <c r="F8" s="6">
+        <v>1.3662420382165603</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>5.8673330798066914E-3</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="3"/>
-        <v>2.9277389277389281</v>
-      </c>
-      <c r="I8" s="6">
-        <f>C8/H8</f>
-        <v>1.3662420382165603</v>
-      </c>
-      <c r="J8" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B8,$I$2:$I$13)</f>
         <v>1.3682460874930229</v>
       </c>
     </row>
@@ -5736,27 +5739,27 @@
         <v>3</v>
       </c>
       <c r="E9" s="7">
+        <f t="shared" si="2"/>
+        <v>3.8330384511683255</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="3"/>
+        <v>0.83303845116832553</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="5"/>
+        <v>3.1165501165501164</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>3.8330384511683255</v>
-      </c>
-      <c r="F9" s="6">
+        <v>0.96260284218399406</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>0.83303845116832553</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="3"/>
-        <v>3.1165501165501164</v>
-      </c>
-      <c r="I9" s="6">
-        <f>C9/H9</f>
-        <v>0.96260284218399406</v>
-      </c>
-      <c r="J9" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B9,$I$2:$I$13)</f>
         <v>1.2298979024317216</v>
       </c>
     </row>
@@ -5771,27 +5774,27 @@
         <v>3</v>
       </c>
       <c r="E10" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4779600655286216</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.52203993447137842</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="5"/>
+        <v>3.3053613053613056</v>
+      </c>
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>2.4779600655286216</v>
-      </c>
-      <c r="F10" s="6">
+        <v>0.90761636107193222</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>0.52203993447137842</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="3"/>
-        <v>3.3053613053613056</v>
-      </c>
-      <c r="I10" s="6">
-        <f>C10/H10</f>
-        <v>0.90761636107193222</v>
-      </c>
-      <c r="J10" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B10,$I$2:$I$13)</f>
         <v>0.74967903251888479</v>
       </c>
     </row>
@@ -5804,27 +5807,27 @@
         <v>2</v>
       </c>
       <c r="E11" s="7">
+        <f t="shared" si="2"/>
+        <v>2.2662196331391513</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="3"/>
+        <v>0.26621963313915131</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="5"/>
+        <v>3.4941724941724939</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>2.2662196331391513</v>
-      </c>
-      <c r="F11" s="6">
+        <v>0.57238158772515013</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>0.26621963313915131</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="3"/>
-        <v>3.4941724941724939</v>
-      </c>
-      <c r="I11" s="6">
-        <f>C11/H11</f>
-        <v>0.57238158772515013</v>
-      </c>
-      <c r="J11" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B11,$I$2:$I$13)</f>
         <v>0.64857119587504741</v>
       </c>
     </row>
@@ -5837,27 +5840,27 @@
         <v>5</v>
       </c>
       <c r="E12" s="7">
+        <f t="shared" si="2"/>
+        <v>5.0392280145430686</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="3"/>
+        <v>3.9228014543068568E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="5"/>
+        <v>3.6829836829836831</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>5.0392280145430686</v>
-      </c>
-      <c r="F12" s="6">
+        <v>1.3575949367088607</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
-        <v>3.9228014543068568E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="3"/>
-        <v>3.6829836829836831</v>
-      </c>
-      <c r="I12" s="6">
-        <f>C12/H12</f>
-        <v>1.3575949367088607</v>
-      </c>
-      <c r="J12" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B12,$I$2:$I$13)</f>
         <v>1.3682460874930229</v>
       </c>
     </row>
@@ -5870,27 +5873,27 @@
         <v>4</v>
       </c>
       <c r="E13" s="7">
+        <f t="shared" si="2"/>
+        <v>4.7619123914664101</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.7619123914664101</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="5"/>
+        <v>3.8717948717948723</v>
+      </c>
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
-        <v>4.7619123914664101</v>
-      </c>
-      <c r="F13" s="6">
+        <v>1.0331125827814569</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
-        <v>0.7619123914664101</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="3"/>
-        <v>3.8717948717948723</v>
-      </c>
-      <c r="I13" s="6">
-        <f>C13/H13</f>
-        <v>1.0331125827814569</v>
-      </c>
-      <c r="J13" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B13,$I$2:$I$13)</f>
         <v>1.2298979024317216</v>
       </c>
     </row>
@@ -5902,19 +5905,19 @@
         <v>3</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0441512229554717</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0606060606060606</v>
       </c>
       <c r="J14" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B14,$I$2:$I$13)</f>
+        <f t="shared" si="1"/>
         <v>0.74967903251888479</v>
       </c>
     </row>
@@ -5923,19 +5926,19 @@
         <v>4</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7560496272266004</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.2494172494172497</v>
       </c>
       <c r="J15" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B15,$I$2:$I$13)</f>
+        <f t="shared" si="1"/>
         <v>0.64857119587504741</v>
       </c>
     </row>
@@ -5944,19 +5947,19 @@
         <v>5</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0725886960063296</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.438228438228438</v>
       </c>
       <c r="J16" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B16,$I$2:$I$13)</f>
+        <f t="shared" si="1"/>
         <v>1.3682460874930229</v>
       </c>
     </row>
@@ -5965,19 +5968,19 @@
         <v>6</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.6907863317644933</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.6270396270396272</v>
       </c>
       <c r="J17" s="6">
-        <f>AVERAGEIF($B$2:$B$13,B17,$I$2:$I$13)</f>
+        <f t="shared" si="1"/>
         <v>1.2298979024317216</v>
       </c>
     </row>
@@ -6038,7 +6041,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6058,7 +6061,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -6109,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="6">
-        <f>$I$25*G2+$I$24</f>
+        <f t="shared" ref="H2:H21" si="0">$I$25*G2+$I$24</f>
         <v>1.8961240310077521</v>
       </c>
       <c r="I2" s="6">
@@ -6117,7 +6120,7 @@
         <v>0.52739165985282088</v>
       </c>
       <c r="J2" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B2,$I$2:$I$15)</f>
+        <f t="shared" ref="J2:J21" si="1">AVERAGEIF($B$2:$B$15,B2,$I$2:$I$15)</f>
         <v>0.73011853507829494</v>
       </c>
     </row>
@@ -6130,27 +6133,27 @@
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E21" si="0">H3*J3</f>
+        <f t="shared" ref="E3:E21" si="2">H3*J3</f>
         <v>1.3035906035626543</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F16" si="1">ABS(C3-E3)</f>
+        <f t="shared" ref="F3:F16" si="3">ABS(C3-E3)</f>
         <v>0.69640939643734567</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G21" si="2">ROW(G3)-1</f>
+        <f t="shared" ref="G3:G21" si="4">ROW(G3)-1</f>
         <v>2</v>
       </c>
       <c r="H3" s="6">
-        <f>$I$25*G3+$I$24</f>
+        <f t="shared" si="0"/>
         <v>2.0403100775193801</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I16" si="3">C3/H3</f>
+        <f t="shared" ref="I3:I16" si="5">C3/H3</f>
         <v>0.98024316109422482</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B3,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>0.63891788700449237</v>
       </c>
     </row>
@@ -6163,27 +6166,27 @@
         <v>3</v>
       </c>
       <c r="E4" s="7">
+        <f t="shared" si="2"/>
+        <v>3.0064805262535912</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="3"/>
+        <v>6.4805262535911901E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
         <f t="shared" si="0"/>
-        <v>3.0064805262535912</v>
-      </c>
-      <c r="F4" s="6">
+        <v>2.1844961240310079</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3733144073811212</v>
+      </c>
+      <c r="J4" s="6">
         <f t="shared" si="1"/>
-        <v>6.4805262535911901E-3</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H4" s="6">
-        <f>$I$25*G4+$I$24</f>
-        <v>2.1844961240310079</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" si="3"/>
-        <v>1.3733144073811212</v>
-      </c>
-      <c r="J4" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B4,$I$2:$I$15)</f>
         <v>1.3762810074049441</v>
       </c>
     </row>
@@ -6196,27 +6199,27 @@
         <v>4</v>
       </c>
       <c r="E5" s="7">
+        <f t="shared" si="2"/>
+        <v>2.9203976355479444</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0796023644520556</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
-        <v>2.9203976355479444</v>
-      </c>
-      <c r="F5" s="6">
+        <v>2.3286821705426357</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="5"/>
+        <v>1.7177097203728362</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>1.0796023644520556</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H5" s="6">
-        <f>$I$25*G5+$I$24</f>
-        <v>2.3286821705426357</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" si="3"/>
-        <v>1.7177097203728362</v>
-      </c>
-      <c r="J5" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B5,$I$2:$I$15)</f>
         <v>1.254098851483638</v>
       </c>
     </row>
@@ -6227,27 +6230,27 @@
       </c>
       <c r="C6" s="4"/>
       <c r="E6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H6" s="6">
-        <f>$I$25*G6+$I$24</f>
-        <v>2.4728682170542635</v>
-      </c>
-      <c r="I6" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4728682170542635</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J6" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B6,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6262,27 +6265,27 @@
         <v>2</v>
       </c>
       <c r="E7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.9107598251351345</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="3"/>
+        <v>8.9240174864865462E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>1.9107598251351345</v>
-      </c>
-      <c r="F7" s="6">
+        <v>2.6170542635658913</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="5"/>
+        <v>0.76421800947867302</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>8.9240174864865462E-2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H7" s="6">
-        <f>$I$25*G7+$I$24</f>
-        <v>2.6170542635658913</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="3"/>
-        <v>0.76421800947867302</v>
-      </c>
-      <c r="J7" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B7,$I$2:$I$15)</f>
         <v>0.73011853507829494</v>
       </c>
     </row>
@@ -6295,27 +6298,27 @@
         <v>1</v>
       </c>
       <c r="E8" s="7">
+        <f t="shared" si="2"/>
+        <v>1.7642058244263581</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.76420582442635809</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>1.7642058244263581</v>
-      </c>
-      <c r="F8" s="6">
+        <v>2.7612403100775196</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.36215609208309935</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>0.76420582442635809</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H8" s="6">
-        <f>$I$25*G8+$I$24</f>
-        <v>2.7612403100775196</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="3"/>
-        <v>0.36215609208309935</v>
-      </c>
-      <c r="J8" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B8,$I$2:$I$15)</f>
         <v>0.63891788700449237</v>
       </c>
     </row>
@@ -6328,27 +6331,27 @@
         <v>4</v>
       </c>
       <c r="E9" s="7">
+        <f t="shared" si="2"/>
+        <v>3.9986831129873881</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="3"/>
+        <v>1.3168870126119003E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>3.9986831129873881</v>
-      </c>
-      <c r="F9" s="6">
+        <v>2.9054263565891474</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3767342582710778</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>1.3168870126119003E-3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H9" s="6">
-        <f>$I$25*G9+$I$24</f>
-        <v>2.9054263565891474</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="3"/>
-        <v>1.3767342582710778</v>
-      </c>
-      <c r="J9" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B9,$I$2:$I$15)</f>
         <v>1.3762810074049441</v>
       </c>
     </row>
@@ -6361,27 +6364,27 @@
         <v>3</v>
       </c>
       <c r="E10" s="7">
+        <f t="shared" si="2"/>
+        <v>3.8245154121989393</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.82451541219893931</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>3.8245154121989393</v>
-      </c>
-      <c r="F10" s="6">
+        <v>3.0496124031007752</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="5"/>
+        <v>0.98373157092018304</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>0.82451541219893931</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H10" s="6">
-        <f>$I$25*G10+$I$24</f>
-        <v>3.0496124031007752</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="3"/>
-        <v>0.98373157092018304</v>
-      </c>
-      <c r="J10" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B10,$I$2:$I$15)</f>
         <v>1.254098851483638</v>
       </c>
     </row>
@@ -6392,27 +6395,27 @@
       </c>
       <c r="C11" s="4"/>
       <c r="E11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H11" s="6">
-        <f>$I$25*G11+$I$24</f>
-        <v>3.1937984496124034</v>
-      </c>
-      <c r="I11" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1937984496124034</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J11" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B11,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6427,27 +6430,27 @@
         <v>3</v>
       </c>
       <c r="E12" s="7">
+        <f t="shared" si="2"/>
+        <v>2.437124350424138</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.562875649575862</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
-        <v>2.437124350424138</v>
-      </c>
-      <c r="F12" s="6">
+        <v>3.3379844961240313</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="5"/>
+        <v>0.89874593590339058</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
-        <v>0.562875649575862</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H12" s="6">
-        <f>$I$25*G12+$I$24</f>
-        <v>3.3379844961240313</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="3"/>
-        <v>0.89874593590339058</v>
-      </c>
-      <c r="J12" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B12,$I$2:$I$15)</f>
         <v>0.73011853507829494</v>
       </c>
     </row>
@@ -6460,27 +6463,27 @@
         <v>2</v>
       </c>
       <c r="E13" s="7">
+        <f t="shared" si="2"/>
+        <v>2.2248210452900619</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.22482104529006186</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
-        <v>2.2248210452900619</v>
-      </c>
-      <c r="F13" s="6">
+        <v>3.4821705426356591</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="5"/>
+        <v>0.5743544078361531</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
-        <v>0.22482104529006186</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H13" s="6">
-        <f>$I$25*G13+$I$24</f>
-        <v>3.4821705426356591</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.5743544078361531</v>
-      </c>
-      <c r="J13" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B13,$I$2:$I$15)</f>
         <v>0.63891788700449237</v>
       </c>
     </row>
@@ -6493,27 +6496,27 @@
         <v>5</v>
       </c>
       <c r="E14" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9908856997211846</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="3"/>
+        <v>9.1143002788154348E-3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H14" s="6">
         <f t="shared" si="0"/>
-        <v>4.9908856997211846</v>
-      </c>
-      <c r="F14" s="6">
+        <v>3.6263565891472869</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3787943565626335</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="1"/>
-        <v>9.1143002788154348E-3</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="H14" s="6">
-        <f>$I$25*G14+$I$24</f>
-        <v>3.6263565891472869</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="3"/>
-        <v>1.3787943565626335</v>
-      </c>
-      <c r="J14" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B14,$I$2:$I$15)</f>
         <v>1.3762810074049441</v>
       </c>
     </row>
@@ -6526,27 +6529,27 @@
         <v>4</v>
       </c>
       <c r="E15" s="7">
+        <f t="shared" si="2"/>
+        <v>4.7286331888499342</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="3"/>
+        <v>0.72863318884993422</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H15" s="6">
         <f t="shared" si="0"/>
-        <v>4.7286331888499342</v>
-      </c>
-      <c r="F15" s="6">
+        <v>3.7705426356589147</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="5"/>
+        <v>1.0608552631578947</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" si="1"/>
-        <v>0.72863318884993422</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H15" s="6">
-        <f>$I$25*G15+$I$24</f>
-        <v>3.7705426356589147</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="3"/>
-        <v>1.0608552631578947</v>
-      </c>
-      <c r="J15" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B15,$I$2:$I$15)</f>
         <v>1.254098851483638</v>
       </c>
     </row>
@@ -6557,27 +6560,27 @@
       </c>
       <c r="C16" s="4"/>
       <c r="E16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H16" s="6">
-        <f>$I$25*G16+$I$24</f>
-        <v>3.9147286821705425</v>
-      </c>
-      <c r="I16" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9147286821705425</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J16" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B16,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6589,19 +6592,19 @@
         <v>12</v>
       </c>
       <c r="E17" s="7">
+        <f t="shared" si="2"/>
+        <v>2.963488875713141</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H17" s="6">
         <f t="shared" si="0"/>
-        <v>2.963488875713141</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="H17" s="6">
-        <f>$I$25*G17+$I$24</f>
         <v>4.0589147286821703</v>
       </c>
       <c r="J17" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B17,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>0.73011853507829494</v>
       </c>
     </row>
@@ -6610,19 +6613,19 @@
         <v>13</v>
       </c>
       <c r="E18" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6854362661537654</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" si="0"/>
-        <v>2.6854362661537654</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="H18" s="6">
-        <f>$I$25*G18+$I$24</f>
         <v>4.2031007751937981</v>
       </c>
       <c r="J18" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B18,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>0.63891788700449237</v>
       </c>
     </row>
@@ -6631,19 +6634,19 @@
         <v>14</v>
       </c>
       <c r="E19" s="7">
+        <f t="shared" si="2"/>
+        <v>5.983088286454981</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" si="0"/>
-        <v>5.983088286454981</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="H19" s="6">
-        <f>$I$25*G19+$I$24</f>
         <v>4.3472868217054259</v>
       </c>
       <c r="J19" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B19,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>1.3762810074049441</v>
       </c>
     </row>
@@ -6652,19 +6655,19 @@
         <v>34</v>
       </c>
       <c r="E20" s="7">
+        <f t="shared" si="2"/>
+        <v>5.6327509655009296</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H20" s="6">
         <f t="shared" si="0"/>
-        <v>5.6327509655009296</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="H20" s="6">
-        <f>$I$25*G20+$I$24</f>
         <v>4.4914728682170546</v>
       </c>
       <c r="J20" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B20,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>1.254098851483638</v>
       </c>
     </row>
@@ -6673,19 +6676,19 @@
         <v>35</v>
       </c>
       <c r="E21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H21" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H21" s="6">
-        <f>$I$25*G21+$I$24</f>
         <v>4.6356589147286824</v>
       </c>
       <c r="J21" s="10">
-        <f>AVERAGEIF($B$2:$B$15,B21,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6746,7 +6749,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6767,7 +6770,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -6786,10 +6789,10 @@
         <v>20</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>21</v>
@@ -6818,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="6">
-        <f>$I$25*G2+$I$24</f>
+        <f t="shared" ref="H2:H21" si="0">$I$25*G2+$I$24</f>
         <v>1.9749999999999999</v>
       </c>
       <c r="I2" s="6">
@@ -6826,7 +6829,7 @@
         <v>0.50632911392405067</v>
       </c>
       <c r="J2" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B2,$I$2:$I$15)</f>
+        <f t="shared" ref="J2:J21" si="1">AVERAGEIF($B$2:$B$15,B2,$I$2:$I$15)</f>
         <v>0.70579651230320284</v>
       </c>
     </row>
@@ -6839,27 +6842,27 @@
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E21" si="0">H3*J3</f>
+        <f t="shared" ref="E3:E21" si="2">H3*J3</f>
         <v>1.3088987396263922</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F16" si="1">ABS(C3-E3)</f>
+        <f t="shared" ref="F3:F16" si="3">ABS(C3-E3)</f>
         <v>0.69110126037360775</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G21" si="2">ROW(G3)-1</f>
+        <f t="shared" ref="G3:G21" si="4">ROW(G3)-1</f>
         <v>2</v>
       </c>
       <c r="H3" s="6">
-        <f>$I$25*G3+$I$24</f>
+        <f t="shared" si="0"/>
         <v>2.1214285714285714</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I16" si="3">C3/H3</f>
+        <f t="shared" ref="I3:I16" si="5">C3/H3</f>
         <v>0.9427609427609428</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B3,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>0.61698930487439363</v>
       </c>
     </row>
@@ -6872,27 +6875,27 @@
         <v>3</v>
       </c>
       <c r="E4" s="7">
+        <f t="shared" si="2"/>
+        <v>3.0206956785904153</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0695678590415323E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
         <f t="shared" si="0"/>
-        <v>3.0206956785904153</v>
-      </c>
-      <c r="F4" s="6">
+        <v>2.2678571428571428</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3228346456692914</v>
+      </c>
+      <c r="J4" s="6">
         <f t="shared" si="1"/>
-        <v>2.0695678590415323E-2</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H4" s="6">
-        <f>$I$25*G4+$I$24</f>
-        <v>2.2678571428571428</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" si="3"/>
-        <v>1.3228346456692914</v>
-      </c>
-      <c r="J4" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B4,$I$2:$I$15)</f>
         <v>1.3319602992209705</v>
       </c>
     </row>
@@ -6905,27 +6908,27 @@
         <v>4</v>
       </c>
       <c r="E5" s="7">
+        <f t="shared" si="2"/>
+        <v>2.9306002373272739</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0693997626727261</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
-        <v>2.9306002373272739</v>
-      </c>
-      <c r="F5" s="6">
+        <v>2.4142857142857141</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="5"/>
+        <v>1.6568047337278107</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>1.0693997626727261</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H5" s="6">
-        <f>$I$25*G5+$I$24</f>
-        <v>2.4142857142857141</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" si="3"/>
-        <v>1.6568047337278107</v>
-      </c>
-      <c r="J5" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B5,$I$2:$I$15)</f>
         <v>1.2138580864669182</v>
       </c>
     </row>
@@ -6938,27 +6941,27 @@
         <v>3</v>
       </c>
       <c r="E6" s="7">
+        <f t="shared" si="2"/>
+        <v>3.0553145336225596</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="3"/>
+        <v>5.5314533622559559E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>3.0553145336225596</v>
-      </c>
-      <c r="F6" s="6">
+        <v>2.5607142857142859</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1715481171548117</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>5.5314533622559559E-2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H6" s="6">
-        <f>$I$25*G6+$I$24</f>
-        <v>2.5607142857142859</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="3"/>
-        <v>1.1715481171548117</v>
-      </c>
-      <c r="J6" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B6,$I$2:$I$15)</f>
         <v>1.1931493297270803</v>
       </c>
     </row>
@@ -6973,27 +6976,27 @@
         <v>2</v>
       </c>
       <c r="E7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.9106919868779564</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="3"/>
+        <v>8.9308013122043617E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>1.9106919868779564</v>
-      </c>
-      <c r="F7" s="6">
+        <v>2.7071428571428573</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="5"/>
+        <v>0.73878627968337729</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>8.9308013122043617E-2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H7" s="6">
-        <f>$I$25*G7+$I$24</f>
-        <v>2.7071428571428573</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="3"/>
-        <v>0.73878627968337729</v>
-      </c>
-      <c r="J7" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B7,$I$2:$I$15)</f>
         <v>0.70579651230320284</v>
       </c>
     </row>
@@ -7006,27 +7009,27 @@
         <v>1</v>
       </c>
       <c r="E8" s="7">
+        <f t="shared" si="2"/>
+        <v>1.7606230521237161</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.76062305212371606</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>1.7606230521237161</v>
-      </c>
-      <c r="F8" s="6">
+        <v>2.8535714285714286</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="5"/>
+        <v>0.35043804755944929</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>0.76062305212371606</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H8" s="6">
-        <f>$I$25*G8+$I$24</f>
-        <v>2.8535714285714286</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="3"/>
-        <v>0.35043804755944929</v>
-      </c>
-      <c r="J8" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B8,$I$2:$I$15)</f>
         <v>0.61698930487439363</v>
       </c>
     </row>
@@ -7039,27 +7042,27 @@
         <v>4</v>
       </c>
       <c r="E9" s="7">
+        <f t="shared" si="2"/>
+        <v>3.9958808976629117</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="3"/>
+        <v>4.1191023370883428E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>3.9958808976629117</v>
-      </c>
-      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>4.1191023370883428E-3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H9" s="6">
-        <f>$I$25*G9+$I$24</f>
-        <v>3</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="3"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J9" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B9,$I$2:$I$15)</f>
         <v>1.3319602992209705</v>
       </c>
     </row>
@@ -7072,27 +7075,27 @@
         <v>3</v>
       </c>
       <c r="E10" s="7">
+        <f t="shared" si="2"/>
+        <v>3.8193177649191248</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.81931776491912478</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>3.8193177649191248</v>
-      </c>
-      <c r="F10" s="6">
+        <v>3.1464285714285714</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="5"/>
+        <v>0.95346197502837682</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>0.81931776491912478</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H10" s="6">
-        <f>$I$25*G10+$I$24</f>
-        <v>3.1464285714285714</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="3"/>
-        <v>0.95346197502837682</v>
-      </c>
-      <c r="J10" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B10,$I$2:$I$15)</f>
         <v>1.2138580864669182</v>
       </c>
     </row>
@@ -7105,27 +7108,27 @@
         <v>4</v>
       </c>
       <c r="E11" s="7">
+        <f t="shared" si="2"/>
+        <v>3.9288702928870287</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="3"/>
+        <v>7.1129707112971285E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
-        <v>3.9288702928870287</v>
-      </c>
-      <c r="F11" s="6">
+        <v>3.2928571428571427</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="5"/>
+        <v>1.2147505422993492</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>7.1129707112971285E-2</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H11" s="6">
-        <f>$I$25*G11+$I$24</f>
-        <v>3.2928571428571427</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="3"/>
-        <v>1.2147505422993492</v>
-      </c>
-      <c r="J11" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B11,$I$2:$I$15)</f>
         <v>1.1931493297270803</v>
       </c>
     </row>
@@ -7140,27 +7143,27 @@
         <v>3</v>
       </c>
       <c r="E12" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4274358619570866</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.5725641380429134</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
-        <v>2.4274358619570866</v>
-      </c>
-      <c r="F12" s="6">
+        <v>3.4392857142857141</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="5"/>
+        <v>0.87227414330218078</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
-        <v>0.5725641380429134</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H12" s="6">
-        <f>$I$25*G12+$I$24</f>
-        <v>3.4392857142857141</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="3"/>
-        <v>0.87227414330218078</v>
-      </c>
-      <c r="J12" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B12,$I$2:$I$15)</f>
         <v>0.70579651230320284</v>
       </c>
     </row>
@@ -7173,27 +7176,27 @@
         <v>2</v>
       </c>
       <c r="E13" s="7">
+        <f t="shared" si="2"/>
+        <v>2.2123473646210399</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.21234736462103987</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
-        <v>2.2123473646210399</v>
-      </c>
-      <c r="F13" s="6">
+        <v>3.5857142857142854</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="5"/>
+        <v>0.5577689243027889</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
-        <v>0.21234736462103987</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H13" s="6">
-        <f>$I$25*G13+$I$24</f>
-        <v>3.5857142857142854</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.5577689243027889</v>
-      </c>
-      <c r="J13" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B13,$I$2:$I$15)</f>
         <v>0.61698930487439363</v>
       </c>
     </row>
@@ -7206,27 +7209,27 @@
         <v>5</v>
       </c>
       <c r="E14" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9710661167354075</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="3"/>
+        <v>2.8933883264592453E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H14" s="6">
         <f t="shared" si="0"/>
-        <v>4.9710661167354075</v>
-      </c>
-      <c r="F14" s="6">
+        <v>3.7321428571428572</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="5"/>
+        <v>1.339712918660287</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="1"/>
-        <v>2.8933883264592453E-2</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="H14" s="6">
-        <f>$I$25*G14+$I$24</f>
-        <v>3.7321428571428572</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="3"/>
-        <v>1.339712918660287</v>
-      </c>
-      <c r="J14" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B14,$I$2:$I$15)</f>
         <v>1.3319602992209705</v>
       </c>
     </row>
@@ -7239,27 +7242,27 @@
         <v>4</v>
       </c>
       <c r="E15" s="7">
+        <f t="shared" si="2"/>
+        <v>4.7080352925109761</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="3"/>
+        <v>0.70803529251097608</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H15" s="6">
         <f t="shared" si="0"/>
-        <v>4.7080352925109761</v>
-      </c>
-      <c r="F15" s="6">
+        <v>3.878571428571429</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="5"/>
+        <v>1.031307550644567</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" si="1"/>
-        <v>0.70803529251097608</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H15" s="6">
-        <f>$I$25*G15+$I$24</f>
-        <v>3.878571428571429</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="3"/>
-        <v>1.031307550644567</v>
-      </c>
-      <c r="J15" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B15,$I$2:$I$15)</f>
         <v>1.2138580864669182</v>
       </c>
     </row>
@@ -7272,27 +7275,27 @@
         <v>4</v>
       </c>
       <c r="E16" s="7">
+        <f t="shared" si="2"/>
+        <v>4.8024260521514988</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="3"/>
+        <v>0.80242605215149876</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H16" s="6">
         <f t="shared" si="0"/>
-        <v>4.8024260521514988</v>
-      </c>
-      <c r="F16" s="6">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="5"/>
+        <v>0.99378881987577627</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="1"/>
-        <v>0.80242605215149876</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H16" s="6">
-        <f>$I$25*G16+$I$24</f>
-        <v>4.0250000000000004</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" si="3"/>
-        <v>0.99378881987577627</v>
-      </c>
-      <c r="J16" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B16,$I$2:$I$15)</f>
         <v>1.1931493297270803</v>
       </c>
     </row>
@@ -7304,19 +7307,19 @@
         <v>7</v>
       </c>
       <c r="E17" s="7">
+        <f t="shared" si="2"/>
+        <v>2.9441797370362179</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H17" s="6">
         <f t="shared" si="0"/>
-        <v>2.9441797370362179</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="H17" s="6">
-        <f>$I$25*G17+$I$24</f>
         <v>4.1714285714285717</v>
       </c>
       <c r="J17" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B17,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>0.70579651230320284</v>
       </c>
     </row>
@@ -7325,19 +7328,19 @@
         <v>8</v>
       </c>
       <c r="E18" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6640716771183639</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" si="0"/>
-        <v>2.6640716771183639</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="H18" s="6">
-        <f>$I$25*G18+$I$24</f>
         <v>4.3178571428571431</v>
       </c>
       <c r="J18" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B18,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>0.61698930487439363</v>
       </c>
     </row>
@@ -7346,19 +7349,19 @@
         <v>9</v>
       </c>
       <c r="E19" s="7">
+        <f t="shared" si="2"/>
+        <v>5.9462513358079043</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" si="0"/>
-        <v>5.9462513358079043</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="H19" s="6">
-        <f>$I$25*G19+$I$24</f>
         <v>4.4642857142857144</v>
       </c>
       <c r="J19" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B19,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>1.3319602992209705</v>
       </c>
     </row>
@@ -7367,19 +7370,19 @@
         <v>10</v>
       </c>
       <c r="E20" s="7">
+        <f t="shared" si="2"/>
+        <v>5.596752820102826</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H20" s="6">
         <f t="shared" si="0"/>
-        <v>5.596752820102826</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="H20" s="6">
-        <f>$I$25*G20+$I$24</f>
         <v>4.6107142857142858</v>
       </c>
       <c r="J20" s="6">
-        <f>AVERAGEIF($B$2:$B$15,B20,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>1.2138580864669182</v>
       </c>
     </row>
@@ -7388,19 +7391,19 @@
         <v>11</v>
       </c>
       <c r="E21" s="7">
+        <f t="shared" si="2"/>
+        <v>5.6759818114159675</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H21" s="6">
         <f t="shared" si="0"/>
-        <v>5.6759818114159675</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H21" s="6">
-        <f>$I$25*G21+$I$24</f>
         <v>4.7571428571428571</v>
       </c>
       <c r="J21" s="10">
-        <f>AVERAGEIF($B$2:$B$15,B21,$I$2:$I$15)</f>
+        <f t="shared" si="1"/>
         <v>1.1931493297270803</v>
       </c>
     </row>
